--- a/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1510A4FF-5223-49AB-83CB-68A6A1C44D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48810B60-5624-4131-BEAF-5BD44A0EE0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EA85EDA5-AE38-460B-A935-1FE9C78CB418}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{77C4DFBF-D1E8-497B-9DCA-6712AB28BEC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,129 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>81,39%</t>
   </si>
   <si>
@@ -101,9 +218,6 @@
     <t>82,07%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>18,61%</t>
   </si>
   <si>
@@ -131,64 +245,61 @@
     <t>27,42%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,117 +359,6 @@
     <t>20,36%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
     <t>82,45%</t>
   </si>
   <si>
@@ -416,6 +416,102 @@
     <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
     <t>76,55%</t>
   </si>
   <si>
@@ -458,58 +554,58 @@
     <t>30,48%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
   </si>
   <si>
     <t>90,68%</t>
@@ -566,102 +662,6 @@
     <t>18,28%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
     <t>80,6%</t>
   </si>
   <si>
@@ -719,6 +719,108 @@
     <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
   </si>
   <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
     <t>76,94%</t>
   </si>
   <si>
@@ -767,58 +869,58 @@
     <t>26,45%</t>
   </si>
   <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>88,64%</t>
@@ -875,108 +977,6 @@
     <t>15,57%</t>
   </si>
   <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
     <t>81,81%</t>
   </si>
   <si>
@@ -1028,12 +1028,111 @@
     <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
     <t>82,37%</t>
   </si>
   <si>
-    <t>76,63%</t>
-  </si>
-  <si>
     <t>87,37%</t>
   </si>
   <si>
@@ -1061,9 +1160,6 @@
     <t>12,63%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
     <t>12,5%</t>
   </si>
   <si>
@@ -1082,52 +1178,58 @@
     <t>19,38%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>86,22%</t>
@@ -1182,108 +1284,6 @@
   </si>
   <si>
     <t>17,73%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
   </si>
   <si>
     <t>84,12%</t>
@@ -1717,7 +1717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7734E7-4738-4273-9572-34AFE623B8A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744D84A-B24E-44C7-A600-32AB98F66FE0}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1835,10 +1835,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>90861</v>
+        <v>13729</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1850,10 +1850,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>81200</v>
+        <v>14129</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1865,10 +1865,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>172061</v>
+        <v>27858</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1886,10 +1886,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>20770</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1901,10 +1901,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>28861</v>
+        <v>3430</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1916,10 +1916,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>49631</v>
+        <v>3430</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1937,54 +1937,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1996,13 +1996,13 @@
         <v>53564</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -2011,13 +2011,13 @@
         <v>45962</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -2026,13 +2026,13 @@
         <v>99527</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2047,13 @@
         <v>14895</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2062,13 +2062,13 @@
         <v>12151</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -2077,13 +2077,13 @@
         <v>27046</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2098,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -2113,13 +2113,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -2128,66 +2128,66 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7">
-        <v>74838</v>
+        <v>90861</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>128</v>
+      </c>
+      <c r="I10" s="7">
+        <v>81200</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>107</v>
-      </c>
-      <c r="I10" s="7">
-        <v>82767</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>267</v>
+      </c>
+      <c r="N10" s="7">
+        <v>172061</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>216</v>
-      </c>
-      <c r="N10" s="7">
-        <v>157605</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,49 +2196,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>15205</v>
+        <v>20770</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>46</v>
+      </c>
+      <c r="I11" s="7">
+        <v>28861</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13222</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>77</v>
+      </c>
+      <c r="N11" s="7">
+        <v>49631</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28427</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,78 +2247,78 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>13729</v>
+        <v>65268</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I13" s="7">
-        <v>14129</v>
+        <v>54083</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2330,10 +2330,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="N13" s="7">
-        <v>27858</v>
+        <v>119351</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2351,10 +2351,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>12601</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2366,10 +2366,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>3430</v>
+        <v>15125</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2381,10 +2381,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N14" s="7">
-        <v>3430</v>
+        <v>27726</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2402,49 +2402,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,10 +2455,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D16" s="7">
-        <v>65268</v>
+        <v>74838</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2470,10 +2470,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I16" s="7">
-        <v>54083</v>
+        <v>82767</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2485,10 +2485,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="N16" s="7">
-        <v>119351</v>
+        <v>157605</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2506,10 +2506,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>12601</v>
+        <v>15205</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2521,10 +2521,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>15125</v>
+        <v>13222</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2536,10 +2536,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>27726</v>
+        <v>28427</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -2557,49 +2557,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2718,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2733,13 +2733,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2748,13 +2748,13 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED76A55-F3FE-4324-B52E-8C660FF63869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFA4F0-A078-4295-B2C2-0F8F3652E90D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2893,10 +2893,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>88243</v>
+        <v>10478</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>125</v>
@@ -2908,34 +2908,34 @@
         <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>80758</v>
+        <v>12890</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23369</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="7">
-        <v>249</v>
-      </c>
-      <c r="N4" s="7">
-        <v>169001</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,10 +2944,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>27035</v>
+        <v>2562</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>132</v>
@@ -2959,31 +2959,31 @@
         <v>134</v>
       </c>
       <c r="H5" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>31204</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2562</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M5" s="7">
-        <v>89</v>
-      </c>
-      <c r="N5" s="7">
-        <v>58239</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>138</v>
@@ -2995,54 +2995,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>115278</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>111962</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>227240</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3156,13 +3156,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -3171,13 +3171,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -3186,27 +3186,27 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>87330</v>
+        <v>88243</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>157</v>
@@ -3218,34 +3218,34 @@
         <v>159</v>
       </c>
       <c r="H10" s="7">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="I10" s="7">
-        <v>75705</v>
+        <v>80758</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>249</v>
+      </c>
+      <c r="N10" s="7">
+        <v>169001</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="7">
-        <v>217</v>
-      </c>
-      <c r="N10" s="7">
-        <v>163034</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3254,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>8971</v>
+        <v>27035</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>48</v>
+      </c>
+      <c r="I11" s="7">
+        <v>31204</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="7">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17272</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>89</v>
+      </c>
+      <c r="N11" s="7">
+        <v>58239</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>26243</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,102 +3305,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>115278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>111962</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>227240</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7">
-        <v>10478</v>
+        <v>62745</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="7">
+        <v>94</v>
+      </c>
+      <c r="I13" s="7">
+        <v>61391</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>190</v>
+      </c>
+      <c r="N13" s="7">
+        <v>124137</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12890</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>23369</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,40 +3409,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>2562</v>
+        <v>17008</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7">
+        <v>13106</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>185</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="N14" s="7">
-        <v>2562</v>
+        <v>30113</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>186</v>
@@ -3460,49 +3460,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,10 +3513,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>62745</v>
+        <v>87330</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>189</v>
@@ -3528,10 +3528,10 @@
         <v>191</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I16" s="7">
-        <v>61391</v>
+        <v>75705</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>192</v>
@@ -3543,10 +3543,10 @@
         <v>194</v>
       </c>
       <c r="M16" s="7">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="N16" s="7">
-        <v>124137</v>
+        <v>163034</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>195</v>
@@ -3564,10 +3564,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>17008</v>
+        <v>8971</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>198</v>
@@ -3579,10 +3579,10 @@
         <v>200</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>13106</v>
+        <v>17272</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>201</v>
@@ -3594,10 +3594,10 @@
         <v>203</v>
       </c>
       <c r="M17" s="7">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>30113</v>
+        <v>26243</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>204</v>
@@ -3615,49 +3615,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>74497</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3776,13 @@
         <v>366574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>503</v>
@@ -3791,13 +3791,13 @@
         <v>353353</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1028</v>
@@ -3806,13 +3806,13 @@
         <v>719927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DF7AFF-C005-4800-8AC1-25F12746970D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF8ECAC-E366-4FC8-97AC-94139F8F7C5E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3951,10 +3951,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>83552</v>
+        <v>14500</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>226</v>
@@ -3963,31 +3963,31 @@
         <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12139</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="7">
-        <v>131</v>
-      </c>
-      <c r="I4" s="7">
-        <v>85164</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>30</v>
+      </c>
+      <c r="N4" s="7">
+        <v>26639</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="M4" s="7">
-        <v>252</v>
-      </c>
-      <c r="N4" s="7">
-        <v>168715</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>232</v>
@@ -4002,43 +4002,43 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>25040</v>
+        <v>977</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2863</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H5" s="7">
-        <v>35</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22019</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3840</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="M5" s="7">
-        <v>71</v>
-      </c>
-      <c r="N5" s="7">
-        <v>47059</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>240</v>
@@ -4053,54 +4053,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107183</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>215774</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4214,13 +4214,13 @@
         <v>61070</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4229,13 +4229,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>162</v>
@@ -4244,27 +4244,27 @@
         <v>116908</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D10" s="7">
-        <v>94628</v>
+        <v>83552</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>260</v>
@@ -4276,10 +4276,10 @@
         <v>262</v>
       </c>
       <c r="H10" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I10" s="7">
-        <v>96984</v>
+        <v>85164</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>263</v>
@@ -4291,19 +4291,19 @@
         <v>265</v>
       </c>
       <c r="M10" s="7">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N10" s="7">
-        <v>191612</v>
+        <v>168715</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,49 +4312,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>12129</v>
+        <v>25040</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>35</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22019</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12023</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>71</v>
+      </c>
+      <c r="N11" s="7">
+        <v>47059</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24152</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,102 +4363,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>106757</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>109007</v>
+        <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="N12" s="7">
-        <v>215764</v>
+        <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7">
-        <v>14500</v>
+        <v>58694</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>100</v>
+      </c>
+      <c r="I13" s="7">
+        <v>63488</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12139</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>186</v>
+      </c>
+      <c r="N13" s="7">
+        <v>122182</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M13" s="7">
-        <v>30</v>
-      </c>
-      <c r="N13" s="7">
-        <v>26639</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,25 +4467,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>977</v>
+        <v>18169</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>287</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>2863</v>
+        <v>12100</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>288</v>
@@ -4497,10 +4497,10 @@
         <v>290</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>3840</v>
+        <v>30269</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>291</v>
@@ -4518,49 +4518,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,10 +4571,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>58694</v>
+        <v>94628</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>294</v>
@@ -4586,10 +4586,10 @@
         <v>296</v>
       </c>
       <c r="H16" s="7">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>63488</v>
+        <v>96984</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>297</v>
@@ -4601,10 +4601,10 @@
         <v>299</v>
       </c>
       <c r="M16" s="7">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N16" s="7">
-        <v>122182</v>
+        <v>191612</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>300</v>
@@ -4622,10 +4622,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>18169</v>
+        <v>12129</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>303</v>
@@ -4637,10 +4637,10 @@
         <v>305</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>12100</v>
+        <v>12023</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>306</v>
@@ -4652,10 +4652,10 @@
         <v>308</v>
       </c>
       <c r="M17" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>30269</v>
+        <v>24152</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>309</v>
@@ -4673,49 +4673,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7">
-        <v>76863</v>
+        <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N18" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>850</v>
@@ -4801,7 +4801,7 @@
         <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>324</v>
@@ -4834,13 +4834,13 @@
         <v>368758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4849,13 +4849,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1038</v>
@@ -4864,13 +4864,13 @@
         <v>731376</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C34D463-BF1D-4695-95CB-D458D059013C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F53AC67-35FC-4C0B-B3F8-58F87775E270}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5009,10 +5009,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>137519</v>
+        <v>5740</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>329</v>
@@ -5021,37 +5021,37 @@
         <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6640</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H4" s="7">
-        <v>143</v>
-      </c>
-      <c r="I4" s="7">
-        <v>103683</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12379</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M4" s="7">
-        <v>314</v>
-      </c>
-      <c r="N4" s="7">
-        <v>241201</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,49 +5060,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>29431</v>
+        <v>765</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2879</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14817</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3644</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="M5" s="7">
-        <v>60</v>
-      </c>
-      <c r="N5" s="7">
-        <v>44248</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,54 +5111,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5170,13 +5170,13 @@
         <v>62716</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -5185,13 +5185,13 @@
         <v>52548</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -5200,13 +5200,13 @@
         <v>115264</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5221,13 @@
         <v>9036</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5236,13 +5236,13 @@
         <v>9974</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5272,13 +5272,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5287,13 +5287,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -5302,66 +5302,66 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="D10" s="7">
-        <v>92923</v>
+        <v>137519</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>143</v>
+      </c>
+      <c r="I10" s="7">
+        <v>103683</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H10" s="7">
-        <v>120</v>
-      </c>
-      <c r="I10" s="7">
-        <v>90965</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>314</v>
+      </c>
+      <c r="N10" s="7">
+        <v>241201</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="M10" s="7">
-        <v>240</v>
-      </c>
-      <c r="N10" s="7">
-        <v>183888</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,49 +5370,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>14852</v>
+        <v>29431</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="7">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14817</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13232</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>60</v>
+      </c>
+      <c r="N11" s="7">
+        <v>44248</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="M11" s="7">
-        <v>37</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28084</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,102 +5421,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>107775</v>
+        <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>211972</v>
+        <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7">
-        <v>5740</v>
+        <v>92084</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>106</v>
+      </c>
+      <c r="I13" s="7">
+        <v>78448</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6640</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>209</v>
+      </c>
+      <c r="N13" s="7">
+        <v>170533</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="M13" s="7">
-        <v>19</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12379</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,25 +5525,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>765</v>
+        <v>19737</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>390</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>2879</v>
+        <v>26838</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>391</v>
@@ -5555,10 +5555,10 @@
         <v>393</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>3644</v>
+        <v>46574</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>394</v>
@@ -5576,49 +5576,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>9519</v>
+        <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>16023</v>
+        <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +5629,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>92084</v>
+        <v>92923</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>397</v>
@@ -5644,10 +5644,10 @@
         <v>399</v>
       </c>
       <c r="H16" s="7">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>78448</v>
+        <v>90965</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>400</v>
@@ -5659,10 +5659,10 @@
         <v>402</v>
       </c>
       <c r="M16" s="7">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="N16" s="7">
-        <v>170533</v>
+        <v>183888</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>403</v>
@@ -5680,10 +5680,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>19737</v>
+        <v>14852</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>406</v>
@@ -5695,10 +5695,10 @@
         <v>408</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>26838</v>
+        <v>13232</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>409</v>
@@ -5710,10 +5710,10 @@
         <v>411</v>
       </c>
       <c r="M17" s="7">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>46574</v>
+        <v>28084</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>412</v>
@@ -5731,49 +5731,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>111821</v>
+        <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>105286</v>
+        <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>217107</v>
+        <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,10 +5793,10 @@
         <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>457</v>
@@ -5844,10 +5844,10 @@
         <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>97</v>
@@ -5892,13 +5892,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5907,13 +5907,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5922,13 +5922,13 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48810B60-5624-4131-BEAF-5BD44A0EE0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD528B17-766F-48FE-9832-2D6882C22247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{77C4DFBF-D1E8-497B-9DCA-6712AB28BEC2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF9365A3-FE49-4DAD-8E77-42E6418E00E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -71,6 +71,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,805 +116,793 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>80,15%</t>
@@ -893,141 +911,144 @@
     <t>74,48%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>88,81%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>81,81%</t>
   </si>
   <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>79,77%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>82,4%</t>
   </si>
   <si>
-    <t>80,04%</t>
+    <t>79,83%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
     <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
     <t>88,23%</t>
   </si>
   <si>
@@ -1052,280 +1073,238 @@
     <t>91,81%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>85,84%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
   </si>
   <si>
     <t>82,37%</t>
   </si>
   <si>
-    <t>87,37%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>91,73%</t>
   </si>
   <si>
     <t>84,5%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>73,6%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1315,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1432,39 +1411,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1516,7 +1495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1627,13 +1606,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1642,6 +1614,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1706,19 +1685,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5744D84A-B24E-44C7-A600-32AB98F66FE0}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE5F053-9D80-4C8A-90E6-C6DC350E53A2}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1835,10 +1834,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13729</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1850,10 +1849,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>14129</v>
+        <v>3430</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1865,10 +1864,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>27858</v>
+        <v>3430</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1886,10 +1885,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13729</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1901,10 +1900,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>3430</v>
+        <v>14129</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1916,10 +1915,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>3430</v>
+        <v>27858</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1943,13 +1942,13 @@
         <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1958,13 +1957,13 @@
         <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1973,13 +1972,13 @@
         <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>53564</v>
+        <v>14895</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -2005,10 +2004,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>45962</v>
+        <v>12151</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -2020,10 +2019,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>99527</v>
+        <v>27046</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -2041,10 +2040,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>14895</v>
+        <v>53564</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -2056,10 +2055,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I8" s="7">
-        <v>12151</v>
+        <v>45962</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -2071,10 +2070,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="N8" s="7">
-        <v>27046</v>
+        <v>99527</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -2098,13 +2097,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -2113,13 +2112,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -2128,13 +2127,13 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>90861</v>
+        <v>20770</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2160,10 +2159,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>81200</v>
+        <v>28861</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2175,10 +2174,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>172061</v>
+        <v>49631</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -2196,10 +2195,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D11" s="7">
-        <v>20770</v>
+        <v>90861</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2211,10 +2210,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="I11" s="7">
-        <v>28861</v>
+        <v>81200</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2226,10 +2225,10 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="N11" s="7">
-        <v>49631</v>
+        <v>172061</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -2253,13 +2252,13 @@
         <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -2268,13 +2267,13 @@
         <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -2283,13 +2282,13 @@
         <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,10 +2299,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>65268</v>
+        <v>12601</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -2315,10 +2314,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>54083</v>
+        <v>15125</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2330,10 +2329,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>119351</v>
+        <v>27726</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2351,10 +2350,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>12601</v>
+        <v>65268</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2366,10 +2365,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I14" s="7">
-        <v>15125</v>
+        <v>54083</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2381,10 +2380,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="N14" s="7">
-        <v>27726</v>
+        <v>119351</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2408,13 +2407,13 @@
         <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -2423,13 +2422,13 @@
         <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -2438,13 +2437,13 @@
         <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>74838</v>
+        <v>15205</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2470,10 +2469,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>82767</v>
+        <v>13222</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2485,10 +2484,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="N16" s="7">
-        <v>157605</v>
+        <v>28427</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2506,10 +2505,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>15205</v>
+        <v>74838</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2521,10 +2520,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I17" s="7">
-        <v>13222</v>
+        <v>82767</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2536,10 +2535,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="N17" s="7">
-        <v>28427</v>
+        <v>157605</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -2563,13 +2562,13 @@
         <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -2578,13 +2577,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -2593,13 +2592,13 @@
         <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,10 +2609,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7">
-        <v>298260</v>
+        <v>63471</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2625,10 +2624,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="I19" s="7">
-        <v>278141</v>
+        <v>72789</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2637,22 +2636,22 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="7">
+        <v>205</v>
+      </c>
+      <c r="N19" s="7">
+        <v>136260</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="7">
-        <v>862</v>
-      </c>
-      <c r="N19" s="7">
-        <v>576401</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,49 +2660,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="D20" s="7">
-        <v>63471</v>
+        <v>298260</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>412</v>
+      </c>
+      <c r="I20" s="7">
+        <v>278141</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>110</v>
-      </c>
-      <c r="I20" s="7">
-        <v>72789</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>862</v>
+      </c>
+      <c r="N20" s="7">
+        <v>576401</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="7">
-        <v>205</v>
-      </c>
-      <c r="N20" s="7">
-        <v>136260</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2717,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2733,13 +2732,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2748,13 +2747,18 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2775,8 +2779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFA4F0-A078-4295-B2C2-0F8F3652E90D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E19D70-6C2C-4334-B585-F1B079D024F8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2792,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2893,49 +2897,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>10478</v>
+        <v>2562</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>12890</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2562</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7">
-        <v>23369</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,49 +2948,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>2562</v>
+        <v>10478</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>12890</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23369</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2562</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3005,13 @@
         <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3016,13 +3020,13 @@
         <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -3031,13 +3035,13 @@
         <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,49 +3052,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>46658</v>
+        <v>15544</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11363</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="7">
-        <v>68</v>
-      </c>
-      <c r="I7" s="7">
-        <v>49664</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>39</v>
+      </c>
+      <c r="N7" s="7">
+        <v>26907</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="7">
-        <v>133</v>
-      </c>
-      <c r="N7" s="7">
-        <v>96322</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,49 +3103,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>15544</v>
+        <v>46658</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>68</v>
+      </c>
+      <c r="I8" s="7">
+        <v>49664</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11363</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>133</v>
+      </c>
+      <c r="N8" s="7">
+        <v>96322</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="M8" s="7">
-        <v>39</v>
-      </c>
-      <c r="N8" s="7">
-        <v>26907</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3160,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -3171,13 +3175,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -3186,13 +3190,13 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,28 +3207,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>88243</v>
+        <v>27035</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31204</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="H10" s="7">
-        <v>121</v>
-      </c>
-      <c r="I10" s="7">
-        <v>80758</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>160</v>
@@ -3233,10 +3237,10 @@
         <v>161</v>
       </c>
       <c r="M10" s="7">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>169001</v>
+        <v>58239</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>162</v>
@@ -3245,7 +3249,7 @@
         <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,10 +3258,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>27035</v>
+        <v>88243</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>164</v>
@@ -3269,34 +3273,34 @@
         <v>166</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>31204</v>
+        <v>80758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="N11" s="7">
-        <v>58239</v>
+        <v>169001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3315,13 @@
         <v>115278</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>169</v>
@@ -3326,13 +3330,13 @@
         <v>111962</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>338</v>
@@ -3341,13 +3345,13 @@
         <v>227240</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,49 +3362,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>62745</v>
+        <v>17008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>61391</v>
+        <v>13106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>124137</v>
+        <v>30113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +3413,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7">
-        <v>17008</v>
+        <v>62745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>13106</v>
+        <v>61391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="N14" s="7">
-        <v>30113</v>
+        <v>124137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3470,13 @@
         <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -3481,13 +3485,13 @@
         <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>238</v>
@@ -3496,13 +3500,13 @@
         <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,49 +3517,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>87330</v>
+        <v>8971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>75705</v>
+        <v>17272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>163034</v>
+        <v>26243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,49 +3568,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="D17" s="7">
-        <v>8971</v>
+        <v>87330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7">
-        <v>17272</v>
+        <v>75705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="N17" s="7">
-        <v>26243</v>
+        <v>163034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3625,13 @@
         <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3636,13 +3640,13 @@
         <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>251</v>
@@ -3651,13 +3655,13 @@
         <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,49 +3672,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>419</v>
+        <v>106</v>
       </c>
       <c r="D19" s="7">
-        <v>295454</v>
+        <v>71120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
-        <v>396</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7">
-        <v>280409</v>
+        <v>72944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
-        <v>815</v>
+        <v>213</v>
       </c>
       <c r="N19" s="7">
-        <v>575863</v>
+        <v>144064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,49 +3723,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>106</v>
+        <v>419</v>
       </c>
       <c r="D20" s="7">
-        <v>71120</v>
+        <v>295454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
-        <v>107</v>
+        <v>396</v>
       </c>
       <c r="I20" s="7">
-        <v>72944</v>
+        <v>280409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
-        <v>213</v>
+        <v>815</v>
       </c>
       <c r="N20" s="7">
-        <v>144064</v>
+        <v>575863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3780,13 @@
         <v>366574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>503</v>
@@ -3791,13 +3795,13 @@
         <v>353353</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1028</v>
@@ -3806,13 +3810,18 @@
         <v>719927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3833,8 +3842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF8ECAC-E366-4FC8-97AC-94139F8F7C5E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827A980-420B-4C7F-9965-10C05B9B5B30}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3850,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,49 +3960,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>14500</v>
+        <v>977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>12139</v>
+        <v>2863</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>26639</v>
+        <v>3840</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,25 +4011,25 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>977</v>
+        <v>14500</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>2863</v>
+        <v>12139</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>236</v>
@@ -4032,19 +4041,19 @@
         <v>238</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>3840</v>
+        <v>26639</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4068,13 @@
         <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -4074,13 +4083,13 @@
         <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4089,13 +4098,13 @@
         <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,49 +4115,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>50295</v>
+        <v>10775</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12626</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="7">
-        <v>62</v>
-      </c>
-      <c r="I7" s="7">
-        <v>43212</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>35</v>
+      </c>
+      <c r="N7" s="7">
+        <v>23401</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M7" s="7">
-        <v>127</v>
-      </c>
-      <c r="N7" s="7">
-        <v>93507</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +4166,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>10775</v>
+        <v>50295</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>62</v>
+      </c>
+      <c r="I8" s="7">
+        <v>43212</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H8" s="7">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12626</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="7">
+        <v>127</v>
+      </c>
+      <c r="N8" s="7">
+        <v>93507</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="M8" s="7">
-        <v>35</v>
-      </c>
-      <c r="N8" s="7">
-        <v>23401</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4223,13 @@
         <v>61070</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4229,13 +4238,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>162</v>
@@ -4244,13 +4253,13 @@
         <v>116908</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,49 +4270,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>83552</v>
+        <v>25040</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="7">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7">
+        <v>22019</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="7">
-        <v>131</v>
-      </c>
-      <c r="I10" s="7">
-        <v>85164</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="M10" s="7">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="N10" s="7">
-        <v>168715</v>
+        <v>47059</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,49 +4321,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D11" s="7">
-        <v>25040</v>
+        <v>83552</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="7">
+        <v>131</v>
+      </c>
+      <c r="I11" s="7">
+        <v>85164</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="7">
-        <v>35</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22019</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>252</v>
+      </c>
+      <c r="N11" s="7">
+        <v>168715</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M11" s="7">
-        <v>71</v>
-      </c>
-      <c r="N11" s="7">
-        <v>47059</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4378,13 @@
         <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -4384,13 +4393,13 @@
         <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>323</v>
@@ -4399,13 +4408,13 @@
         <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,49 +4425,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>58694</v>
+        <v>18169</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12100</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H13" s="7">
-        <v>100</v>
-      </c>
-      <c r="I13" s="7">
-        <v>63488</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>44</v>
+      </c>
+      <c r="N13" s="7">
+        <v>30269</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="M13" s="7">
-        <v>186</v>
-      </c>
-      <c r="N13" s="7">
-        <v>122182</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,49 +4476,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7">
-        <v>18169</v>
+        <v>58694</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="7">
+        <v>100</v>
+      </c>
+      <c r="I14" s="7">
+        <v>63488</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H14" s="7">
-        <v>19</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12100</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>186</v>
+      </c>
+      <c r="N14" s="7">
+        <v>122182</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M14" s="7">
-        <v>44</v>
-      </c>
-      <c r="N14" s="7">
-        <v>30269</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4533,13 @@
         <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
@@ -4539,13 +4548,13 @@
         <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
@@ -4554,13 +4563,13 @@
         <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,49 +4580,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>94628</v>
+        <v>12129</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="7">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7">
+        <v>12023</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="7">
-        <v>127</v>
-      </c>
-      <c r="I16" s="7">
-        <v>96984</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24152</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="M16" s="7">
-        <v>255</v>
-      </c>
-      <c r="N16" s="7">
-        <v>191612</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,49 +4631,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7">
-        <v>12129</v>
+        <v>94628</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="7">
+        <v>127</v>
+      </c>
+      <c r="I17" s="7">
+        <v>96984</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12023</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>255</v>
+      </c>
+      <c r="N17" s="7">
+        <v>191612</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="M17" s="7">
-        <v>34</v>
-      </c>
-      <c r="N17" s="7">
-        <v>24152</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4688,13 @@
         <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -4694,13 +4703,13 @@
         <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>289</v>
@@ -4709,13 +4718,13 @@
         <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,49 +4735,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>417</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7">
-        <v>301668</v>
+        <v>67090</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="7">
+        <v>94</v>
+      </c>
+      <c r="I19" s="7">
+        <v>61631</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="7">
-        <v>433</v>
-      </c>
-      <c r="I19" s="7">
-        <v>300987</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>188</v>
+      </c>
+      <c r="N19" s="7">
+        <v>128721</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>850</v>
-      </c>
-      <c r="N19" s="7">
-        <v>602655</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,49 +4786,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>94</v>
+        <v>417</v>
       </c>
       <c r="D20" s="7">
-        <v>67090</v>
+        <v>301668</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>433</v>
+      </c>
+      <c r="I20" s="7">
+        <v>300987</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H20" s="7">
-        <v>94</v>
-      </c>
-      <c r="I20" s="7">
-        <v>61631</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>850</v>
+      </c>
+      <c r="N20" s="7">
+        <v>602655</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="M20" s="7">
-        <v>188</v>
-      </c>
-      <c r="N20" s="7">
-        <v>128721</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4843,13 @@
         <v>368758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4849,13 +4858,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1038</v>
@@ -4864,13 +4873,18 @@
         <v>731376</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4891,8 +4905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F53AC67-35FC-4C0B-B3F8-58F87775E270}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF1B7D1-7EC1-44B4-9E25-021773D2C625}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4908,7 +4922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5009,49 +5023,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>5740</v>
+        <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2879</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6640</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3644</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12379</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,49 +5074,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>765</v>
+        <v>5740</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6640</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2879</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>12379</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3644</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5131,13 @@
         <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5132,13 +5146,13 @@
         <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -5147,13 +5161,13 @@
         <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,49 +5178,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>62716</v>
+        <v>9036</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9974</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H7" s="7">
-        <v>77</v>
-      </c>
-      <c r="I7" s="7">
-        <v>52548</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7">
+        <v>19010</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="M7" s="7">
-        <v>150</v>
-      </c>
-      <c r="N7" s="7">
-        <v>115264</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,49 +5229,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>9036</v>
+        <v>62716</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>77</v>
+      </c>
+      <c r="I8" s="7">
+        <v>52548</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H8" s="7">
-        <v>18</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9974</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>150</v>
+      </c>
+      <c r="N8" s="7">
+        <v>115264</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="M8" s="7">
-        <v>29</v>
-      </c>
-      <c r="N8" s="7">
-        <v>19010</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5286,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5287,13 +5301,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -5302,13 +5316,13 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,49 +5333,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>137519</v>
+        <v>29431</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7">
+        <v>14817</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H10" s="7">
-        <v>143</v>
-      </c>
-      <c r="I10" s="7">
-        <v>103683</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="7">
+        <v>60</v>
+      </c>
+      <c r="N10" s="7">
+        <v>44248</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="M10" s="7">
-        <v>314</v>
-      </c>
-      <c r="N10" s="7">
-        <v>241201</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,49 +5384,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7">
-        <v>29431</v>
+        <v>137519</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="7">
+        <v>143</v>
+      </c>
+      <c r="I11" s="7">
+        <v>103683</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14817</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>314</v>
+      </c>
+      <c r="N11" s="7">
+        <v>241201</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="M11" s="7">
-        <v>60</v>
-      </c>
-      <c r="N11" s="7">
-        <v>44248</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5441,13 @@
         <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -5442,13 +5456,13 @@
         <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>374</v>
@@ -5457,13 +5471,13 @@
         <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,49 +5488,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>92084</v>
+        <v>19737</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="7">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7">
+        <v>26838</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>61</v>
+      </c>
+      <c r="N13" s="7">
+        <v>46574</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H13" s="7">
-        <v>106</v>
-      </c>
-      <c r="I13" s="7">
-        <v>78448</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="M13" s="7">
-        <v>209</v>
-      </c>
-      <c r="N13" s="7">
-        <v>170533</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,49 +5539,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7">
-        <v>19737</v>
+        <v>92084</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="7">
+        <v>106</v>
+      </c>
+      <c r="I14" s="7">
+        <v>78448</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M14" s="7">
+        <v>209</v>
+      </c>
+      <c r="N14" s="7">
+        <v>170533</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>26838</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="M14" s="7">
-        <v>61</v>
-      </c>
-      <c r="N14" s="7">
-        <v>46574</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5596,13 @@
         <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -5597,13 +5611,13 @@
         <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>270</v>
@@ -5612,13 +5626,13 @@
         <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,49 +5643,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>92923</v>
+        <v>14852</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13232</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M16" s="7">
+        <v>37</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28084</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H16" s="7">
-        <v>120</v>
-      </c>
-      <c r="I16" s="7">
-        <v>90965</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M16" s="7">
-        <v>240</v>
-      </c>
-      <c r="N16" s="7">
-        <v>183888</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,49 +5694,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
-        <v>14852</v>
+        <v>92923</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="7">
+        <v>120</v>
+      </c>
+      <c r="I17" s="7">
+        <v>90965</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M17" s="7">
+        <v>240</v>
+      </c>
+      <c r="N17" s="7">
+        <v>183888</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13232</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M17" s="7">
-        <v>37</v>
-      </c>
-      <c r="N17" s="7">
-        <v>28084</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5751,13 @@
         <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -5752,13 +5766,13 @@
         <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>277</v>
@@ -5767,13 +5781,13 @@
         <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,49 +5798,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>475</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7">
-        <v>390982</v>
+        <v>73821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
-        <v>457</v>
+        <v>97</v>
       </c>
       <c r="I19" s="7">
-        <v>332285</v>
+        <v>67739</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
-        <v>932</v>
+        <v>192</v>
       </c>
       <c r="N19" s="7">
-        <v>723265</v>
+        <v>141561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,49 +5849,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>95</v>
+        <v>475</v>
       </c>
       <c r="D20" s="7">
-        <v>73821</v>
+        <v>390982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
-        <v>97</v>
+        <v>457</v>
       </c>
       <c r="I20" s="7">
-        <v>67739</v>
+        <v>332285</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="M20" s="7">
-        <v>192</v>
+        <v>932</v>
       </c>
       <c r="N20" s="7">
-        <v>141561</v>
+        <v>723265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5906,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5907,13 +5921,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5922,13 +5936,18 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD528B17-766F-48FE-9832-2D6882C22247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DBB8B5-C870-491D-94C2-2309B8DA408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF9365A3-FE49-4DAD-8E77-42E6418E00E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AB3BE86-9DEF-4C70-AC03-CA8306942B40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="432">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -86,19 +86,19 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,190 +116,190 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>21,85%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>78,15%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,1003 +308,1033 @@
     <t>16,89%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>17,91%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE5F053-9D80-4C8A-90E6-C6DC350E53A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB22040-6779-405C-A091-161BA3D85AE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,7 +2666,7 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -2645,13 +2675,13 @@
         <v>136260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2696,13 @@
         <v>298260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>412</v>
@@ -2681,13 +2711,13 @@
         <v>278141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>862</v>
@@ -2696,13 +2726,13 @@
         <v>576401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2788,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E19D70-6C2C-4334-B585-F1B079D024F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D2F3A3-9EE3-494D-A756-5A70F05B1630}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2796,7 +2826,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2903,13 +2933,13 @@
         <v>2562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2924,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2933,13 +2963,13 @@
         <v>2562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2984,13 @@
         <v>10478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -2972,7 +3002,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2984,13 +3014,13 @@
         <v>23369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3088,13 @@
         <v>15544</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3073,13 +3103,13 @@
         <v>11363</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3088,13 +3118,13 @@
         <v>26907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3139,13 @@
         <v>46658</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -3124,13 +3154,13 @@
         <v>49664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>133</v>
@@ -3139,13 +3169,13 @@
         <v>96322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3243,13 @@
         <v>27035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -3228,13 +3258,13 @@
         <v>31204</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -3243,13 +3273,13 @@
         <v>58239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3294,13 @@
         <v>88243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
@@ -3279,13 +3309,13 @@
         <v>80758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>249</v>
@@ -3294,13 +3324,13 @@
         <v>169001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3398,13 @@
         <v>17008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3383,13 +3413,13 @@
         <v>13106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3398,13 +3428,13 @@
         <v>30113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3449,13 @@
         <v>62745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -3434,13 +3464,13 @@
         <v>61391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -3449,13 +3479,13 @@
         <v>124137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3553,13 @@
         <v>8971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3538,13 +3568,13 @@
         <v>17272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -3553,13 +3583,13 @@
         <v>26243</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3604,13 @@
         <v>87330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -3589,13 +3619,13 @@
         <v>75705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -3604,13 +3634,13 @@
         <v>163034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3708,13 @@
         <v>71120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -3693,13 +3723,13 @@
         <v>72944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>213</v>
@@ -3708,13 +3738,13 @@
         <v>144064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3759,13 @@
         <v>295454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>396</v>
@@ -3744,13 +3774,13 @@
         <v>280409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>815</v>
@@ -3759,13 +3789,13 @@
         <v>575863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3851,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827A980-420B-4C7F-9965-10C05B9B5B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DAD329-B351-4E5A-B399-CC17A6C4B514}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3859,7 +3889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,13 +3996,13 @@
         <v>977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3981,13 +4011,13 @@
         <v>2863</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3996,13 +4026,13 @@
         <v>3840</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4047,10 @@
         <v>14500</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4032,13 +4062,13 @@
         <v>12139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -4047,13 +4077,13 @@
         <v>26639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4151,13 @@
         <v>10775</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4136,13 +4166,13 @@
         <v>12626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4151,13 +4181,13 @@
         <v>23401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4202,13 @@
         <v>50295</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -4187,13 +4217,13 @@
         <v>43212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
@@ -4202,13 +4232,13 @@
         <v>93507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4306,13 @@
         <v>25040</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4291,13 +4321,13 @@
         <v>22019</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -4306,13 +4336,13 @@
         <v>47059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4357,13 @@
         <v>83552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>131</v>
@@ -4342,13 +4372,13 @@
         <v>85164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
@@ -4357,13 +4387,13 @@
         <v>168715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4461,13 @@
         <v>18169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4446,13 +4476,13 @@
         <v>12100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -4461,13 +4491,13 @@
         <v>30269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4512,13 @@
         <v>58694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -4497,13 +4527,13 @@
         <v>63488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -4512,13 +4542,13 @@
         <v>122182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4616,13 @@
         <v>12129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4601,13 +4631,13 @@
         <v>12023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4616,13 +4646,13 @@
         <v>24152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4667,13 @@
         <v>94628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -4652,13 +4682,13 @@
         <v>96984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -4667,13 +4697,13 @@
         <v>191612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4771,13 @@
         <v>67090</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -4756,13 +4786,13 @@
         <v>61631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -4771,13 +4801,13 @@
         <v>128721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4822,13 @@
         <v>301668</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>433</v>
@@ -4807,13 +4837,13 @@
         <v>300987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>850</v>
@@ -4822,13 +4852,13 @@
         <v>602655</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,7 +4914,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +4935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF1B7D1-7EC1-44B4-9E25-021773D2C625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777AEF5-C2C8-431D-8803-2B046F37F7E8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4922,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5029,13 +5059,13 @@
         <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5044,13 +5074,13 @@
         <v>2879</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5059,13 +5089,13 @@
         <v>3644</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,10 +5110,10 @@
         <v>5740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5095,13 +5125,13 @@
         <v>6640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5110,13 +5140,13 @@
         <v>12379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5214,13 @@
         <v>9036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5199,13 +5229,13 @@
         <v>9974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -5214,13 +5244,13 @@
         <v>19010</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5265,13 @@
         <v>62716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>77</v>
@@ -5250,13 +5280,13 @@
         <v>52548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>150</v>
@@ -5265,13 +5295,13 @@
         <v>115264</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5369,13 @@
         <v>29431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -5354,13 +5384,13 @@
         <v>14817</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5369,13 +5399,13 @@
         <v>44248</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5420,13 @@
         <v>137519</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>143</v>
@@ -5405,13 +5435,13 @@
         <v>103683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>314</v>
@@ -5420,13 +5450,13 @@
         <v>241201</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5524,13 @@
         <v>19737</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5509,13 +5539,13 @@
         <v>26838</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -5524,13 +5554,13 @@
         <v>46574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5575,13 @@
         <v>92084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -5560,13 +5590,13 @@
         <v>78448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>209</v>
@@ -5575,13 +5605,13 @@
         <v>170533</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5679,13 @@
         <v>14852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5664,13 +5694,13 @@
         <v>13232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5679,13 +5709,13 @@
         <v>28084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5730,13 @@
         <v>92923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -5715,13 +5745,13 @@
         <v>90965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>240</v>
@@ -5730,13 +5760,13 @@
         <v>183888</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5834,13 @@
         <v>73821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>97</v>
@@ -5819,13 +5849,13 @@
         <v>67739</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -5834,13 +5864,13 @@
         <v>141561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5885,13 @@
         <v>390982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>457</v>
@@ -5870,13 +5900,13 @@
         <v>332285</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>932</v>
@@ -5885,13 +5915,13 @@
         <v>723265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,7 +5977,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63DBB8B5-C870-491D-94C2-2309B8DA408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F945BB-E2EE-4500-B4DC-3DE06C24A628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AB3BE86-9DEF-4C70-AC03-CA8306942B40}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{18A79EE8-9416-4682-96D5-9BF10E48CA71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Menores según su última visita al dentista fue por empastes en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1273 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2016 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por empastes en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
 </sst>
 </file>
@@ -1746,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB22040-6779-405C-A091-161BA3D85AE5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88AAAA8-9949-4278-A2C8-E8AEEF4D8C1F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1864,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>15581</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1879,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>3430</v>
+        <v>14895</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1894,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>3430</v>
+        <v>30476</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1915,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>13729</v>
+        <v>60092</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1930,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I5" s="7">
-        <v>14129</v>
+        <v>67293</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1945,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="N5" s="7">
-        <v>27858</v>
+        <v>127385</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1966,102 +1774,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>14895</v>
+        <v>28861</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
       <c r="I7" s="7">
-        <v>12151</v>
+        <v>20770</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
+        <v>77</v>
+      </c>
+      <c r="N7" s="7">
+        <v>49631</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="N7" s="7">
-        <v>27046</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,49 +1878,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>53564</v>
+        <v>81200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>45962</v>
+        <v>90861</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="N8" s="7">
-        <v>99527</v>
+        <v>172061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,102 +1929,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>20770</v>
+        <v>15125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>28861</v>
+        <v>12601</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>49631</v>
+        <v>27726</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,49 +2033,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>90861</v>
+        <v>54083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7">
-        <v>81200</v>
+        <v>65268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="N11" s="7">
-        <v>172061</v>
+        <v>119351</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,102 +2084,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N12" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>12601</v>
+        <v>13222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>15125</v>
+        <v>15205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>27726</v>
+        <v>28427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,49 +2188,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>65268</v>
+        <v>82767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I14" s="7">
-        <v>54083</v>
+        <v>74838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="N14" s="7">
-        <v>119351</v>
+        <v>157605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,63 +2239,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>69208</v>
+        <v>90043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>15205</v>
+        <v>72789</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2499,10 +2307,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>13222</v>
+        <v>63471</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2514,10 +2322,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="N16" s="7">
-        <v>28427</v>
+        <v>136260</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2535,10 +2343,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="D17" s="7">
-        <v>74838</v>
+        <v>278141</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2550,10 +2358,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="I17" s="7">
-        <v>82767</v>
+        <v>298260</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2565,10 +2373,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>216</v>
+        <v>862</v>
       </c>
       <c r="N17" s="7">
-        <v>157605</v>
+        <v>576401</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -2586,217 +2394,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="D18" s="7">
-        <v>90043</v>
+        <v>350930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>95989</v>
+        <v>361731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>1067</v>
       </c>
       <c r="N18" s="7">
-        <v>186032</v>
+        <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>63471</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>110</v>
-      </c>
-      <c r="I19" s="7">
-        <v>72789</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>205</v>
-      </c>
-      <c r="N19" s="7">
-        <v>136260</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>450</v>
-      </c>
-      <c r="D20" s="7">
-        <v>298260</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>412</v>
-      </c>
-      <c r="I20" s="7">
-        <v>278141</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>862</v>
-      </c>
-      <c r="N20" s="7">
-        <v>576401</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>545</v>
-      </c>
-      <c r="D21" s="7">
-        <v>361731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>712661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2809,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D2F3A3-9EE3-494D-A756-5A70F05B1630}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D669E8A8-F12F-492C-A313-21328401682A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2826,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2927,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>2562</v>
+        <v>11363</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>18106</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>2562</v>
+        <v>29469</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7">
-        <v>10478</v>
+        <v>62555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7">
-        <v>12890</v>
+        <v>57136</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="N5" s="7">
-        <v>23369</v>
+        <v>119690</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,102 +2681,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>13040</v>
+        <v>73918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7">
-        <v>12890</v>
+        <v>75242</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="N6" s="7">
-        <v>25931</v>
+        <v>149159</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>15544</v>
+        <v>31204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>11363</v>
+        <v>27035</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="N7" s="7">
-        <v>26907</v>
+        <v>58239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7">
-        <v>46658</v>
+        <v>80758</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7">
-        <v>49664</v>
+        <v>88243</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="N8" s="7">
-        <v>96322</v>
+        <v>169001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,102 +2836,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="D9" s="7">
-        <v>62202</v>
+        <v>111962</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="I9" s="7">
-        <v>61027</v>
+        <v>115278</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="N9" s="7">
-        <v>123229</v>
+        <v>227240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>27035</v>
+        <v>13106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7">
+        <v>17008</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="7">
         <v>48</v>
       </c>
-      <c r="I10" s="7">
-        <v>31204</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="7">
-        <v>89</v>
-      </c>
       <c r="N10" s="7">
-        <v>58239</v>
+        <v>30113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>88243</v>
+        <v>61391</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="I11" s="7">
-        <v>80758</v>
+        <v>62745</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="N11" s="7">
-        <v>169001</v>
+        <v>124137</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,102 +2991,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>115278</v>
+        <v>74497</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>111962</v>
+        <v>79753</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>227240</v>
+        <v>154250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>17008</v>
+        <v>17272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>13106</v>
+        <v>8971</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>30113</v>
+        <v>26243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7">
-        <v>62745</v>
+        <v>75705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>61391</v>
+        <v>87330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="N14" s="7">
-        <v>124137</v>
+        <v>163034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,102 +3146,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>79753</v>
+        <v>92977</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>74497</v>
+        <v>96301</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7">
-        <v>8971</v>
+        <v>72944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I16" s="7">
-        <v>17272</v>
+        <v>71120</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="N16" s="7">
-        <v>26243</v>
+        <v>144064</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="D17" s="7">
-        <v>87330</v>
+        <v>280409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="I17" s="7">
-        <v>75705</v>
+        <v>295454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>217</v>
+        <v>815</v>
       </c>
       <c r="N17" s="7">
-        <v>163034</v>
+        <v>575863</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,217 +3301,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>503</v>
       </c>
       <c r="D18" s="7">
-        <v>96301</v>
+        <v>353353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>525</v>
       </c>
       <c r="I18" s="7">
-        <v>92977</v>
+        <v>366574</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>189277</v>
+        <v>719927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="7">
-        <v>71120</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="7">
-        <v>107</v>
-      </c>
-      <c r="I19" s="7">
-        <v>72944</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M19" s="7">
-        <v>213</v>
-      </c>
-      <c r="N19" s="7">
-        <v>144064</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>419</v>
-      </c>
-      <c r="D20" s="7">
-        <v>295454</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>396</v>
-      </c>
-      <c r="I20" s="7">
-        <v>280409</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>815</v>
-      </c>
-      <c r="N20" s="7">
-        <v>575863</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>525</v>
-      </c>
-      <c r="D21" s="7">
-        <v>366574</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>503</v>
-      </c>
-      <c r="I21" s="7">
-        <v>353353</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1028</v>
-      </c>
-      <c r="N21" s="7">
-        <v>719927</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3872,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DAD329-B351-4E5A-B399-CC17A6C4B514}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B150A9-090A-473C-8C94-9A058C7E2FD6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3889,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>977</v>
+        <v>15489</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>2863</v>
+        <v>11752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>3840</v>
+        <v>27241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7">
-        <v>14500</v>
+        <v>55352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="I5" s="7">
-        <v>12139</v>
+        <v>64794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="N5" s="7">
-        <v>26639</v>
+        <v>120146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,102 +3588,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>15477</v>
+        <v>70841</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I6" s="7">
-        <v>15002</v>
+        <v>76546</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="N6" s="7">
-        <v>30479</v>
+        <v>147387</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>10775</v>
+        <v>22019</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>12626</v>
+        <v>25040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>23401</v>
+        <v>47059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D8" s="7">
-        <v>50295</v>
+        <v>85164</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="I8" s="7">
-        <v>43212</v>
+        <v>83552</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="N8" s="7">
-        <v>93507</v>
+        <v>168715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,102 +3743,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="D9" s="7">
-        <v>61070</v>
+        <v>107183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>55838</v>
+        <v>108592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="N9" s="7">
-        <v>116908</v>
+        <v>215774</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>25040</v>
+        <v>12100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>22019</v>
+        <v>18169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>47059</v>
+        <v>30269</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>83552</v>
+        <v>63488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7">
-        <v>85164</v>
+        <v>58694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="N11" s="7">
-        <v>168715</v>
+        <v>122182</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,102 +3898,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>108592</v>
+        <v>75588</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="I12" s="7">
-        <v>107183</v>
+        <v>76863</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="N12" s="7">
-        <v>215774</v>
+        <v>152451</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>18169</v>
+        <v>12023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>12100</v>
+        <v>12129</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>30269</v>
+        <v>24152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>58694</v>
+        <v>96984</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I14" s="7">
-        <v>63488</v>
+        <v>94628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N14" s="7">
-        <v>122182</v>
+        <v>191612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,102 +4053,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7">
-        <v>76863</v>
+        <v>109007</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7">
-        <v>75588</v>
+        <v>106757</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N15" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>12129</v>
+        <v>61631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>12023</v>
+        <v>67090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="N16" s="7">
-        <v>24152</v>
+        <v>128721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>128</v>
+        <v>433</v>
       </c>
       <c r="D17" s="7">
-        <v>94628</v>
+        <v>300987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="I17" s="7">
-        <v>96984</v>
+        <v>301668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>255</v>
+        <v>850</v>
       </c>
       <c r="N17" s="7">
-        <v>191612</v>
+        <v>602655</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,217 +4208,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>145</v>
+        <v>527</v>
       </c>
       <c r="D18" s="7">
-        <v>106757</v>
+        <v>362618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>144</v>
+        <v>511</v>
       </c>
       <c r="I18" s="7">
-        <v>109007</v>
+        <v>368758</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>289</v>
+        <v>1038</v>
       </c>
       <c r="N18" s="7">
-        <v>215764</v>
+        <v>731376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7">
-        <v>67090</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="7">
-        <v>94</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61631</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>188</v>
-      </c>
-      <c r="N19" s="7">
-        <v>128721</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>417</v>
-      </c>
-      <c r="D20" s="7">
-        <v>301668</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>433</v>
-      </c>
-      <c r="I20" s="7">
-        <v>300987</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>850</v>
-      </c>
-      <c r="N20" s="7">
-        <v>602655</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>511</v>
-      </c>
-      <c r="D21" s="7">
-        <v>368758</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>527</v>
-      </c>
-      <c r="I21" s="7">
-        <v>362618</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1038</v>
-      </c>
-      <c r="N21" s="7">
-        <v>731376</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4935,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777AEF5-C2C8-431D-8803-2B046F37F7E8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E122F305-01E8-4B2B-BD91-3827B99536DE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4952,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5053,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>765</v>
+        <v>13027</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>2879</v>
+        <v>10733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>3644</v>
+        <v>23760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>5740</v>
+        <v>56739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>6640</v>
+        <v>74516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="N5" s="7">
-        <v>12379</v>
+        <v>131255</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,102 +4495,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>6505</v>
+        <v>69766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>9519</v>
+        <v>85249</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>16023</v>
+        <v>155015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>9036</v>
+        <v>14769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>9974</v>
+        <v>30606</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>19010</v>
+        <v>45375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>62716</v>
+        <v>98964</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="I8" s="7">
-        <v>52548</v>
+        <v>136770</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>115264</v>
+        <v>235734</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,102 +4650,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D9" s="7">
-        <v>71752</v>
+        <v>113733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="I9" s="7">
-        <v>62522</v>
+        <v>167376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="N9" s="7">
-        <v>134274</v>
+        <v>281109</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>29431</v>
+        <v>27746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>14817</v>
+        <v>21221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>44248</v>
+        <v>48967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7">
-        <v>137519</v>
+        <v>79209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="I11" s="7">
-        <v>103683</v>
+        <v>99026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="N11" s="7">
-        <v>241201</v>
+        <v>178235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,102 +4805,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="D12" s="7">
-        <v>166950</v>
+        <v>106955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>118500</v>
+        <v>120247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="N12" s="7">
-        <v>285449</v>
+        <v>227202</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>19737</v>
+        <v>13364</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>26838</v>
+        <v>16228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>46574</v>
+        <v>29593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
-        <v>92084</v>
+        <v>87815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I14" s="7">
-        <v>78448</v>
+        <v>95343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="N14" s="7">
-        <v>170533</v>
+        <v>183158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,102 +4960,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7">
-        <v>111821</v>
+        <v>101179</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>105286</v>
+        <v>111571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N15" s="7">
-        <v>217107</v>
+        <v>212751</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>14852</v>
+        <v>68906</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>13232</v>
+        <v>78788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="N16" s="7">
-        <v>28084</v>
+        <v>147694</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="D17" s="7">
-        <v>92923</v>
+        <v>322727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
-        <v>120</v>
+        <v>475</v>
       </c>
       <c r="I17" s="7">
-        <v>90965</v>
+        <v>405656</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
-        <v>240</v>
+        <v>932</v>
       </c>
       <c r="N17" s="7">
-        <v>183888</v>
+        <v>728382</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,217 +5115,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="D18" s="7">
-        <v>107775</v>
+        <v>391633</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>139</v>
+        <v>570</v>
       </c>
       <c r="I18" s="7">
-        <v>104197</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>277</v>
+        <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>211972</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>73821</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H19" s="7">
-        <v>97</v>
-      </c>
-      <c r="I19" s="7">
-        <v>67739</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M19" s="7">
-        <v>192</v>
-      </c>
-      <c r="N19" s="7">
-        <v>141561</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>475</v>
-      </c>
-      <c r="D20" s="7">
-        <v>390982</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H20" s="7">
-        <v>457</v>
-      </c>
-      <c r="I20" s="7">
-        <v>332285</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M20" s="7">
-        <v>932</v>
-      </c>
-      <c r="N20" s="7">
-        <v>723265</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>570</v>
-      </c>
-      <c r="D21" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>554</v>
-      </c>
-      <c r="I21" s="7">
-        <v>400024</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1124</v>
-      </c>
-      <c r="N21" s="7">
-        <v>864826</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
